--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2205.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2205.xlsx
@@ -354,10 +354,10 @@
         <v>1.6728387746855</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.074838757948272</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2205.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2205.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.004012609483491</v>
+        <v>0.9226154088973999</v>
       </c>
       <c r="B1">
-        <v>1.6728387746855</v>
+        <v>2.023155689239502</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>8.864248275756836</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.829176783561707</v>
       </c>
       <c r="E1">
-        <v>1.074838757948272</v>
+        <v>1.426509141921997</v>
       </c>
     </row>
   </sheetData>
